--- a/stringDensityCalculations.xlsx
+++ b/stringDensityCalculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\SMC\SMC10\multiString\MultiStringFDS_withRealTimeImplementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3ACC38A1-3E52-44F6-9C76-95BBCB39D584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33466E06-68D9-4CEC-8C3E-6F2D83F56BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22236" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="13" uniqueCount="13">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="18" uniqueCount="14">
   <si>
     <t>h</t>
   </si>
@@ -76,14 +76,18 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="180" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -126,13 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:K27"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E3:AH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,9 +464,30 @@
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="44.109375" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.77734375" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
+    <col min="16" max="16" width="3.109375" customWidth="1"/>
+    <col min="17" max="18" width="2.88671875" customWidth="1"/>
+    <col min="19" max="19" width="2.109375" customWidth="1"/>
+    <col min="20" max="20" width="2.44140625" customWidth="1"/>
+    <col min="21" max="21" width="2" customWidth="1"/>
+    <col min="22" max="22" width="2.88671875" customWidth="1"/>
+    <col min="23" max="23" width="2.77734375" customWidth="1"/>
+    <col min="24" max="24" width="2.88671875" customWidth="1"/>
+    <col min="25" max="25" width="3" customWidth="1"/>
+    <col min="26" max="27" width="2.77734375" customWidth="1"/>
+    <col min="28" max="28" width="2.88671875" customWidth="1"/>
+    <col min="29" max="29" width="3" customWidth="1"/>
+    <col min="30" max="30" width="3.5546875" customWidth="1"/>
+    <col min="31" max="31" width="3.44140625" customWidth="1"/>
+    <col min="32" max="32" width="3.5546875" customWidth="1"/>
+    <col min="33" max="33" width="3.109375" customWidth="1"/>
+    <col min="34" max="34" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>1</v>
       </c>
@@ -469,15 +496,81 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="3">
         <v>1.29E-5</v>
       </c>
-    </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>11</v>
+      </c>
+      <c r="X4">
+        <v>12</v>
+      </c>
+      <c r="Y4">
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <v>14</v>
+      </c>
+      <c r="AA4">
+        <v>15</v>
+      </c>
+      <c r="AB4">
+        <v>16</v>
+      </c>
+      <c r="AC4">
+        <v>17</v>
+      </c>
+      <c r="AD4">
+        <v>18</v>
+      </c>
+      <c r="AE4">
+        <v>19</v>
+      </c>
+      <c r="AF4">
+        <v>20</v>
+      </c>
+      <c r="AG4">
+        <v>21</v>
+      </c>
+      <c r="AH4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -486,8 +579,71 @@
         <v>9.6076858295845658E-11</v>
       </c>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>7</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>2</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>5</v>
+      </c>
+      <c r="AD5">
+        <v>6</v>
+      </c>
+      <c r="AE5">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <v>8</v>
+      </c>
+      <c r="AG5">
+        <v>9</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>4</v>
       </c>
@@ -496,7 +652,7 @@
         <v>1.6641E-10</v>
       </c>
     </row>
-    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>2</v>
       </c>
@@ -504,8 +660,17 @@
         <f>((F4/2)*(F4/2)*3.14)</f>
         <v>1.3063185000000001E-10</v>
       </c>
-    </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -513,7 +678,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -521,8 +686,16 @@
         <f>(F5*$F$8)</f>
         <v>8.646917246626109E-7</v>
       </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="N9" s="6">
+        <f>(22*2/7)</f>
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="O9">
+        <f>(O10-1)/2</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="10" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>7</v>
       </c>
@@ -530,8 +703,16 @@
         <f t="shared" ref="F10:F11" si="0">(F6*$F$8)</f>
         <v>1.49769E-6</v>
       </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <f>AH4/2</f>
+        <v>8.5</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ref="O10:O11" si="1">N10+1</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="11" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -539,8 +720,16 @@
         <f t="shared" si="0"/>
         <v>1.1756866500000001E-6</v>
       </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="N11">
+        <f>22*4/7</f>
+        <v>12.571428571428571</v>
+      </c>
+      <c r="O11">
+        <f>(AH4-O10)/2+X4</f>
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="12" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>9</v>
       </c>
@@ -548,23 +737,35 @@
         <f>($F$3/F9)</f>
         <v>1156.4815199199279</v>
       </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <f>_xlfn.CEILING.MATH(N9,1,1)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" ref="F13:F14" si="1">($F$3/F10)</f>
+        <f t="shared" ref="F13:F14" si="2">($F$3/F10)</f>
         <v>667.69491683859815</v>
       </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <f t="shared" ref="O13:O14" si="3">_xlfn.CEILING.MATH(N10,1,1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="5:34" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>850.56677304280004</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="8:11" x14ac:dyDescent="0.3">
@@ -616,6 +817,11 @@
       <c r="J27" s="5">
         <f>($F$3/J26)</f>
         <v>986.26483898063009</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" x14ac:dyDescent="0.3">
+      <c r="J30" s="7">
+        <v>2.6933333333333301E-3</v>
       </c>
     </row>
   </sheetData>
